--- a/public/bitacoras/BitacoraDeBuzzLightyear-mayo, 2023-2.xlsx
+++ b/public/bitacoras/BitacoraDeBuzzLightyear-mayo, 2023-2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>#</t>
   </si>
@@ -40,10 +40,10 @@
     <t>NUMERO DE EMPLEADO</t>
   </si>
   <si>
-    <t>HONOR NOTE 11 PRO</t>
+    <t>HONOR 15151</t>
   </si>
   <si>
-    <t>2023-05-15</t>
+    <t>2023-05-21</t>
   </si>
   <si>
     <t>RODRÍGUEZ NARANJO ARIANA BELEM</t>
@@ -53,24 +53,6 @@
   </si>
   <si>
     <t>EMPLEADO 105781</t>
-  </si>
-  <si>
-    <t>OPPO NOTE 11 PRO</t>
-  </si>
-  <si>
-    <t>2023-05-21</t>
-  </si>
-  <si>
-    <t>XIAOMI 11 PRO</t>
-  </si>
-  <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>APPLE IPHONE 11</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
   </si>
 </sst>
 </file>
@@ -132,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -183,13 +165,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>515165156156151</v>
+        <v>111111111111111</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1515154451551515100</v>
+        <v>1111111111111111200</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1551515151</v>
+        <v>1111111111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -207,122 +189,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>777777777777777</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>7777777777777778000</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>7777777777</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>777777777777777</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>7777777777777778000</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>7777777777</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>155151515151515</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>6256562969959599000</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>6565656565</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>415151515151515</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1616516516515151600</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>6165151515</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
